--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/103.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/103.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1436253564185437</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.647197559265361</v>
+        <v>-1.744940478711244</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1203848411757098</v>
+        <v>-0.09951738194032204</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.06564426623124023</v>
+        <v>-0.1162670536392266</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1443977308179738</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.711757965749162</v>
+        <v>-1.872073436203073</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05677638604718144</v>
+        <v>-0.138840857172766</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.02776623860879586</v>
+        <v>-0.05350250630724349</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1674249917485542</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.880957828836253</v>
+        <v>-2.068784255443112</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07608552204944899</v>
+        <v>-0.08399123054159895</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1617621521519417</v>
+        <v>-0.1649932385771226</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2150286213874598</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.032074266293394</v>
+        <v>-2.234265376042658</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02671399585537133</v>
+        <v>-0.08798446207023423</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.12054645459368</v>
+        <v>-0.1677644098536674</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2807075351198563</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.118409830005007</v>
+        <v>-2.32476864702977</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01602936392610147</v>
+        <v>-0.0227217724547063</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1049765017522297</v>
+        <v>-0.1658502868064861</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.3533089995527208</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.916765508265789</v>
+        <v>-2.137349573840275</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1419001098433404</v>
+        <v>0.131272419789616</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.12734297845686</v>
+        <v>-0.183297861492845</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.4207661878163618</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.623782768031458</v>
+        <v>-1.832000226275948</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1217353856598004</v>
+        <v>0.1095337637640764</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1438575824131283</v>
+        <v>-0.172391302253757</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.4720160880575725</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.22756221736111</v>
+        <v>-1.507396494512762</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2828181113854844</v>
+        <v>0.2566277687307641</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1205741955074073</v>
+        <v>-0.1559511607501251</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.4932839568040642</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7981051319493163</v>
+        <v>-1.116226250188867</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2804586736705759</v>
+        <v>0.297696001431844</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1080396826469561</v>
+        <v>-0.1181665762054988</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.4720336460566927</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2680069316311859</v>
+        <v>-0.5713348426136499</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1883179587495098</v>
+        <v>0.1859935621887831</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.08084774700187251</v>
+        <v>-0.06148020907596862</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.3985450616241839</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5261278254949645</v>
+        <v>0.1408211343041589</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.104650911027957</v>
+        <v>-0.04779225822369957</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0626267987474526</v>
+        <v>0.01598118233910149</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.2705190034685279</v>
       </c>
       <c r="E13" t="n">
-        <v>1.007042845822745</v>
+        <v>0.5723222870432249</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.3737056531244302</v>
+        <v>-0.3498265665976185</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2387918212522235</v>
+        <v>0.1499785559303382</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.09392297617574498</v>
       </c>
       <c r="E14" t="n">
-        <v>1.741004640978275</v>
+        <v>1.274408312278036</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.9012721300529249</v>
+        <v>-0.8450150170621219</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2292898282765897</v>
+        <v>0.2286138260104989</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1229696936274497</v>
       </c>
       <c r="E15" t="n">
-        <v>2.548465257030149</v>
+        <v>1.958861336718943</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.289786546899457</v>
+        <v>-1.241206366770652</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4701510417376159</v>
+        <v>0.3875108597440926</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3665258283558078</v>
       </c>
       <c r="E16" t="n">
-        <v>3.266451205974956</v>
+        <v>2.54387194573615</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.759181787789967</v>
+        <v>-1.669780123087446</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6621459056440189</v>
+        <v>0.5248386030306921</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.6272618636348316</v>
       </c>
       <c r="E17" t="n">
-        <v>3.986799512730853</v>
+        <v>3.16036411168953</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.004472057134765</v>
+        <v>-1.876333856532345</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8095859420082521</v>
+        <v>0.6372812866558437</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.8994744395360887</v>
       </c>
       <c r="E18" t="n">
-        <v>4.539973773125796</v>
+        <v>3.565969851488239</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.502913494745813</v>
+        <v>-2.29016769734737</v>
       </c>
       <c r="G18" t="n">
-        <v>1.017133238179015</v>
+        <v>0.8394862668619713</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.171997023318047</v>
       </c>
       <c r="E19" t="n">
-        <v>4.999842200223127</v>
+        <v>3.877704719378155</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.783007660457647</v>
+        <v>-2.53661870492444</v>
       </c>
       <c r="G19" t="n">
-        <v>1.145373642147798</v>
+        <v>0.9901661499399308</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.434128059174654</v>
       </c>
       <c r="E20" t="n">
-        <v>5.245552233394061</v>
+        <v>4.006400658351303</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.082608068664021</v>
+        <v>-2.721363700035436</v>
       </c>
       <c r="G20" t="n">
-        <v>1.356514116670287</v>
+        <v>1.139050173866073</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.673509182805431</v>
       </c>
       <c r="E21" t="n">
-        <v>5.65869474143804</v>
+        <v>4.327678400563398</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.426693952128247</v>
+        <v>-2.94865960668383</v>
       </c>
       <c r="G21" t="n">
-        <v>1.536762893685329</v>
+        <v>1.240900208591682</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.880940494007205</v>
       </c>
       <c r="E22" t="n">
-        <v>6.002606149155403</v>
+        <v>4.571798441363333</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.652561931743731</v>
+        <v>-3.178331011576132</v>
       </c>
       <c r="G22" t="n">
-        <v>1.587429482536043</v>
+        <v>1.288278769141669</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.054339188783036</v>
       </c>
       <c r="E23" t="n">
-        <v>6.020412895672125</v>
+        <v>4.522590440555437</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.864065228216811</v>
+        <v>-3.36525001829449</v>
       </c>
       <c r="G23" t="n">
-        <v>1.707233728635556</v>
+        <v>1.380276399349826</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.191051752374453</v>
       </c>
       <c r="E24" t="n">
-        <v>6.172906158478994</v>
+        <v>4.607026481700778</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.071300804120165</v>
+        <v>-3.583856448729841</v>
       </c>
       <c r="G24" t="n">
-        <v>1.838363567776248</v>
+        <v>1.437326318453993</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.290612729431024</v>
       </c>
       <c r="E25" t="n">
-        <v>6.094542457343742</v>
+        <v>4.466203383284543</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.27273998910261</v>
+        <v>-3.728407779946211</v>
       </c>
       <c r="G25" t="n">
-        <v>1.78439581019199</v>
+        <v>1.356541857584014</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.35130385433193</v>
       </c>
       <c r="E26" t="n">
-        <v>5.982466245789409</v>
+        <v>4.417807169215192</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.266917317316067</v>
+        <v>-3.811808646995098</v>
       </c>
       <c r="G26" t="n">
-        <v>1.726878675698733</v>
+        <v>1.334118439003839</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.372202002556919</v>
       </c>
       <c r="E27" t="n">
-        <v>5.821516384439997</v>
+        <v>4.192606431577253</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.260334690498205</v>
+        <v>-3.774401484881972</v>
       </c>
       <c r="G27" t="n">
-        <v>1.765340722557541</v>
+        <v>1.312660112211753</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.354833839755337</v>
       </c>
       <c r="E28" t="n">
-        <v>5.838467542775447</v>
+        <v>4.146283485796992</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.218528403487171</v>
+        <v>-3.718832054541986</v>
       </c>
       <c r="G28" t="n">
-        <v>1.733529194752822</v>
+        <v>1.23210925903632</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.301284401503811</v>
       </c>
       <c r="E29" t="n">
-        <v>5.588018193501424</v>
+        <v>3.870073048006976</v>
       </c>
       <c r="F29" t="n">
-        <v>-4.170659996802684</v>
+        <v>-3.669689025874136</v>
       </c>
       <c r="G29" t="n">
-        <v>1.660893262278205</v>
+        <v>1.189643760312241</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.216300648064074</v>
       </c>
       <c r="E30" t="n">
-        <v>5.516408674834715</v>
+        <v>3.721545275815016</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.201740040513857</v>
+        <v>-3.711542764448125</v>
       </c>
       <c r="G30" t="n">
-        <v>1.702558654648467</v>
+        <v>1.188297595972423</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.105908403763241</v>
       </c>
       <c r="E31" t="n">
-        <v>5.24739919422906</v>
+        <v>3.451477260343452</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.190592573339769</v>
+        <v>-3.649346905847551</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497573742877249</v>
+        <v>1.049740492193278</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.977905443370909</v>
       </c>
       <c r="E32" t="n">
-        <v>4.88975165407243</v>
+        <v>3.133985422831083</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.021396360372905</v>
+        <v>-3.447293040618832</v>
       </c>
       <c r="G32" t="n">
-        <v>1.437792073794993</v>
+        <v>0.9665075306748463</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.839941042235867</v>
       </c>
       <c r="E33" t="n">
-        <v>4.63101945197868</v>
+        <v>2.882841090665786</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.933817565711883</v>
+        <v>-3.336734549054998</v>
       </c>
       <c r="G33" t="n">
-        <v>1.48780602114907</v>
+        <v>0.9672711358263915</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.697963397269407</v>
       </c>
       <c r="E34" t="n">
-        <v>4.351966300555665</v>
+        <v>2.610507080557132</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.830857164413138</v>
+        <v>-3.178431754894405</v>
       </c>
       <c r="G34" t="n">
-        <v>1.386942978932915</v>
+        <v>0.874175549453871</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.556239982306324</v>
       </c>
       <c r="E35" t="n">
-        <v>3.979506572516764</v>
+        <v>2.241093012835868</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.774375934040381</v>
+        <v>-3.159643856060591</v>
       </c>
       <c r="G35" t="n">
-        <v>1.365637957190375</v>
+        <v>0.8150144008102506</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.416546735469329</v>
       </c>
       <c r="E36" t="n">
-        <v>3.730044215752195</v>
+        <v>2.012982399352747</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.602542874221336</v>
+        <v>-2.990376100737273</v>
       </c>
       <c r="G36" t="n">
-        <v>1.217721945148506</v>
+        <v>0.7026622401667353</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.281176288012828</v>
       </c>
       <c r="E37" t="n">
-        <v>3.369619664126656</v>
+        <v>1.749246612451454</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.528863737385765</v>
+        <v>-2.900783169734843</v>
       </c>
       <c r="G37" t="n">
-        <v>1.133195381021529</v>
+        <v>0.620582716640121</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.152454181917488</v>
       </c>
       <c r="E38" t="n">
-        <v>3.137714385655263</v>
+        <v>1.515998089736426</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.35771325004922</v>
+        <v>-2.749553578550656</v>
       </c>
       <c r="G38" t="n">
-        <v>1.012342820392743</v>
+        <v>0.5003331558728805</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.030787708727278</v>
       </c>
       <c r="E39" t="n">
-        <v>2.731161074645554</v>
+        <v>1.117753912412078</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.222637630942847</v>
+        <v>-2.597088786681561</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9271621547210387</v>
+        <v>0.4473582309904402</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.9190497563203293</v>
       </c>
       <c r="E40" t="n">
-        <v>2.380272097101739</v>
+        <v>0.8121512465039786</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.099175234351562</v>
+        <v>-2.475062347387684</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8259662215401568</v>
+        <v>0.3873268936846381</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.8172024411772554</v>
       </c>
       <c r="E41" t="n">
-        <v>2.091897998666362</v>
+        <v>0.6255249794278469</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.984488456810684</v>
+        <v>-2.394493243611115</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7335831386359997</v>
+        <v>0.3060401762713872</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.7253122488828728</v>
       </c>
       <c r="E42" t="n">
-        <v>1.709431101012374</v>
+        <v>0.3113824922360222</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.804594471481732</v>
+        <v>-2.289014989379598</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6772661636734694</v>
+        <v>0.2784365070646674</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.6435302054158077</v>
       </c>
       <c r="E43" t="n">
-        <v>1.589146499090952</v>
+        <v>0.2076008138861409</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.770812608778332</v>
+        <v>-2.195155797855532</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5707395949126798</v>
+        <v>0.1618122457071532</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.569270561164559</v>
       </c>
       <c r="E44" t="n">
-        <v>1.345125741561199</v>
+        <v>0.02027372372637306</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.703619735586623</v>
+        <v>-2.185528970768126</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4791945796127044</v>
+        <v>0.09137076551317215</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5027218362008545</v>
       </c>
       <c r="E45" t="n">
-        <v>1.158410411551522</v>
+        <v>-0.1305448639202228</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.579546308869292</v>
+        <v>-2.037050110187211</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4162314657403576</v>
+        <v>0.04259055879591252</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4417644518045172</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8964339825997741</v>
+        <v>-0.3193028012090812</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.557232393895935</v>
+        <v>-2.053208462409297</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4538277040812567</v>
+        <v>0.04165904811391277</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.385189461149113</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5134297872483315</v>
+        <v>-0.630950066213543</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.523211813329671</v>
+        <v>-2.039886253603801</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3390489435106511</v>
+        <v>-0.06427912126624059</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3330375611139524</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4096889902449958</v>
+        <v>-0.6722884078114409</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.444087427139056</v>
+        <v>-1.950194769355234</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2700996324655787</v>
+        <v>-0.06714665571678528</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2844927346306418</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1752987099228769</v>
+        <v>-0.8831821342065662</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.391235146296252</v>
+        <v>-1.913929364849198</v>
       </c>
       <c r="G49" t="n">
-        <v>0.199652312079234</v>
+        <v>-0.1535012000535803</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2406910920595026</v>
       </c>
       <c r="E50" t="n">
-        <v>0.09265268773698999</v>
+        <v>-1.006326970338079</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.257675787132288</v>
+        <v>-1.841889131995672</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1068312147478044</v>
+        <v>-0.2400922721811025</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2016273285044918</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002363313795196053</v>
+        <v>-1.133302972660135</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.219263381908571</v>
+        <v>-1.789246368053914</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1210477030089824</v>
+        <v>-0.2429568865354653</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1664960185942437</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.07243348985396568</v>
+        <v>-1.19279263212421</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.100835231134739</v>
+        <v>-1.688845431058532</v>
       </c>
       <c r="G52" t="n">
-        <v>0.07556866502526731</v>
+        <v>-0.2896915658773619</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1345948256100284</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.2423933079723746</v>
+        <v>-1.332796643561445</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.02994697622494</v>
+        <v>-1.668330295333174</v>
       </c>
       <c r="G53" t="n">
-        <v>0.05363290250745501</v>
+        <v>-0.3082049756700842</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1045686839865094</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.1059050923380476</v>
+        <v>-1.263819591602646</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.046473260565936</v>
+        <v>-1.663647921105629</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.05936751948842373</v>
+        <v>-0.3864942143526995</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.07613395707313339</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.3567982962317075</v>
+        <v>-1.482799064325223</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.056813321145751</v>
+        <v>-1.70208222705071</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.09772298283659525</v>
+        <v>-0.4274909046973249</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.04866931202851753</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.4211207148766902</v>
+        <v>-1.60922900866128</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.934789071924011</v>
+        <v>-1.588410182933013</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.09722948658186811</v>
+        <v>-0.454563116398954</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.0211491799004162</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.4179524105194183</v>
+        <v>-1.593930624764739</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.898664562058748</v>
+        <v>-1.590613395502194</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1223350135050432</v>
+        <v>-0.4718296451220402</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.0062930659517826</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.4373520695033222</v>
+        <v>-1.666457053632538</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.894011388793022</v>
+        <v>-1.616028452620642</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1765407589281195</v>
+        <v>-0.5335823791270237</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.03452847865649255</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.5590105766782896</v>
+        <v>-1.794966836474094</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.828358866337221</v>
+        <v>-1.621253964738004</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.2092151751545653</v>
+        <v>-0.5544406261537453</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.06432580625546269</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4806556358315833</v>
+        <v>-1.727471003303521</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.815624326888316</v>
+        <v>-1.617530842106187</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.195595846562569</v>
+        <v>-0.5340203935542963</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.0958550285842764</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.6191587178313643</v>
+        <v>-1.834612252310583</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.860601108328758</v>
+        <v>-1.723588735429795</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3194356655853539</v>
+        <v>-0.6299411729827251</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1297796581162662</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.7505615859650563</v>
+        <v>-2.003156553804856</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.782701702486416</v>
+        <v>-1.636467665845273</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3316723286352597</v>
+        <v>-0.6315705866521791</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1657787701415475</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7940096970543173</v>
+        <v>-2.043983878570936</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.931216334245557</v>
+        <v>-1.75012364943397</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4114756371881474</v>
+        <v>-0.6860552012606191</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2047540616991488</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.8665974479419343</v>
+        <v>-2.169726870280221</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.935159194115056</v>
+        <v>-1.729748678325339</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.4739496349500397</v>
+        <v>-0.766879083429052</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2462420945561653</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.9763010813485412</v>
+        <v>-2.300238379054413</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.866210613094029</v>
+        <v>-1.695516390785893</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5416330843002942</v>
+        <v>-0.7995476594631341</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2893885327514941</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.106499409807233</v>
+        <v>-2.460169856860416</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.034918439974484</v>
+        <v>-1.851439306558306</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.5376807341182044</v>
+        <v>-0.8120412909770398</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3337531843502909</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.133178868572408</v>
+        <v>-2.570207111255795</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.017584749039216</v>
+        <v>-1.834058164060083</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5518417405519278</v>
+        <v>-0.8356327480299426</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3780268657258105</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.11484942483914</v>
+        <v>-2.637962832986549</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.108204093849555</v>
+        <v>-1.893774861002295</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6024426272385507</v>
+        <v>-0.867385873911025</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4218476711075403</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.0974631721726</v>
+        <v>-2.598899976338333</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.13934180946032</v>
+        <v>-1.948493813329325</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.5609626609758345</v>
+        <v>-0.8573451231898458</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4641790110947072</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.17314184486867</v>
+        <v>-2.714759902520256</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.25392711365888</v>
+        <v>-2.053496091883206</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6124220559399116</v>
+        <v>-0.9140139697422851</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5039576953008061</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.208289582561115</v>
+        <v>-2.750190889542337</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.401196324396477</v>
+        <v>-2.158935654840314</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7579085479585089</v>
+        <v>-0.9904197463876283</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.5407159635175733</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.228756536699473</v>
+        <v>-2.765489273438879</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.543372887392984</v>
+        <v>-2.30593037653682</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6573535758895359</v>
+        <v>-0.9472665650127308</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5734450383743239</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.123671035404411</v>
+        <v>-2.650234537190637</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.56016563051057</v>
+        <v>-2.380451961120846</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7471100322781482</v>
+        <v>-1.014019963729077</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.6015520511542534</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.158345717515401</v>
+        <v>-2.677404572114357</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.600313302890332</v>
+        <v>-2.420097376957335</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.8062551203927686</v>
+        <v>-1.020266049461984</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.624422613016014</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.9461802892330947</v>
+        <v>-2.401449642740249</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.62400039309319</v>
+        <v>-2.447165938538737</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.8403472433154867</v>
+        <v>-1.023571598339801</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.6410639788470192</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.9156842647582847</v>
+        <v>-2.258894197264151</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.508896771822357</v>
+        <v>-2.386636724833935</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.8158067550034933</v>
+        <v>-0.9911059689903554</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.6509732735780456</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.7378445670932415</v>
+        <v>-2.07199636124311</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.56844775330625</v>
+        <v>-2.465294625659505</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7057512500069775</v>
+        <v>-0.8815644009218393</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.6529951076893558</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.5169246904578463</v>
+        <v>-1.805174032677637</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.488935724347499</v>
+        <v>-2.404543484644885</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7313312925596979</v>
+        <v>-0.9191635593589201</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.6468525381751075</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3294340749118967</v>
+        <v>-1.579026453852743</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.461894173655779</v>
+        <v>-2.366258103605077</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6491451855224472</v>
+        <v>-0.8571859779479368</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.6323889906577159</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.136234671330494</v>
+        <v>-1.327626613271538</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.39695269462025</v>
+        <v>-2.280941653460918</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5975865072881883</v>
+        <v>-0.742858372237422</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.609931778260818</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.01689910066816241</v>
+        <v>-1.083271504728967</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.287141017654916</v>
+        <v>-2.184644181625035</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5146762163978469</v>
+        <v>-0.6480486894061748</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.5803240368682548</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2384852111531326</v>
+        <v>-0.793263612479863</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.200379849924803</v>
+        <v>-2.153343670652134</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4683488904733139</v>
+        <v>-0.6108466640498211</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.5445816348961396</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4681916571996164</v>
+        <v>-0.5066809930520308</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.138772390704865</v>
+        <v>-2.093324013731059</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4473358783489559</v>
+        <v>-0.5631863142182885</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.5047004032247743</v>
       </c>
       <c r="E84" t="n">
-        <v>0.8483735795913325</v>
+        <v>-0.1289461112606778</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.081967759679971</v>
+        <v>-2.037844376348665</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.4055347015062399</v>
+        <v>-0.4774873314743114</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.462537286062486</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9735595629539353</v>
+        <v>0.08399752265408322</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.88719588430466</v>
+        <v>-1.91128083761229</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3886069039402444</v>
+        <v>-0.4571065201733169</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.4203469684190259</v>
       </c>
       <c r="E86" t="n">
-        <v>1.292962603417304</v>
+        <v>0.3932284080680911</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.918925649416288</v>
+        <v>-1.905486636763519</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2907734615127253</v>
+        <v>-0.318410711825536</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.3805599449614359</v>
       </c>
       <c r="E87" t="n">
-        <v>1.530014551409149</v>
+        <v>0.7124401822315508</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.798003736503184</v>
+        <v>-1.780148078375416</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2445220580889195</v>
+        <v>-0.2729798554288209</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.3443646632552965</v>
       </c>
       <c r="E88" t="n">
-        <v>1.704624622697103</v>
+        <v>0.9266496778411297</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.602851518600191</v>
+        <v>-1.645260075448725</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.2245223193396521</v>
+        <v>-0.2618061073890967</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.3129868862398245</v>
       </c>
       <c r="E89" t="n">
-        <v>1.944209754126675</v>
+        <v>1.2069789112956</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.534686253379937</v>
+        <v>-1.574955839775289</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.105867131087684</v>
+        <v>-0.1370055767224938</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.2862375721289391</v>
       </c>
       <c r="E90" t="n">
-        <v>2.126801908327626</v>
+        <v>1.52879395120515</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.318136300680631</v>
+        <v>-1.365294393968891</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.06953967453778465</v>
+        <v>-0.1123293039380459</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.2635187824416657</v>
       </c>
       <c r="E91" t="n">
-        <v>2.1880100443947</v>
+        <v>1.63389113288494</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.116522639951322</v>
+        <v>-1.197619551112755</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.03185875340761294</v>
+        <v>-0.08066378094241802</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.2450217931025963</v>
       </c>
       <c r="E92" t="n">
-        <v>2.180200247156429</v>
+        <v>1.708981406200374</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.9442063042141862</v>
+        <v>-0.9928536465551731</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.03247051355770368</v>
+        <v>-0.05698034085978801</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.2308769467610827</v>
       </c>
       <c r="E93" t="n">
-        <v>2.22976887984278</v>
+        <v>1.842948118781702</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.7001519655783426</v>
+        <v>-0.7789843421507759</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.02468991728125123</v>
+        <v>-0.05558599493297021</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.2221525891172399</v>
       </c>
       <c r="E94" t="n">
-        <v>2.199325417099243</v>
+        <v>1.887501486275781</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.5944766048545528</v>
+        <v>-0.6473478663225386</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.06500330511933131</v>
+        <v>-0.0820698072539631</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2196335630874107</v>
       </c>
       <c r="E95" t="n">
-        <v>2.139314520466713</v>
+        <v>1.901380703427959</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.3904786855927894</v>
+        <v>-0.4221193877708718</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.0485179021248812</v>
+        <v>-0.06047569598942343</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2235655869768759</v>
       </c>
       <c r="E96" t="n">
-        <v>2.000107695287114</v>
+        <v>1.821762820982617</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.2197669427075625</v>
+        <v>-0.2333045086064679</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.01409872842979953</v>
+        <v>-0.04752652947115419</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2330586476817986</v>
       </c>
       <c r="E97" t="n">
-        <v>1.879037587492783</v>
+        <v>1.750261345874636</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.09373121135605088</v>
+        <v>-0.1191579488592259</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.09335743904477825</v>
+        <v>-0.1058656710395931</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2461766070268345</v>
       </c>
       <c r="E98" t="n">
-        <v>1.744346691058365</v>
+        <v>1.668616916679112</v>
       </c>
       <c r="F98" t="n">
-        <v>0.03582615599073252</v>
+        <v>-0.01965713151188894</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.0706580713754207</v>
+        <v>-0.08409197385987165</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.261202313409546</v>
       </c>
       <c r="E99" t="n">
-        <v>1.537186307631693</v>
+        <v>1.524959864918424</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08739651460971867</v>
+        <v>0.04328992183145779</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1461191969059459</v>
+        <v>-0.1488100655374906</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2767897909349119</v>
       </c>
       <c r="E100" t="n">
-        <v>1.418723845727725</v>
+        <v>1.476143156998891</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2081687725935044</v>
+        <v>0.1077262242275314</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1942774231364784</v>
+        <v>-0.1688477655371216</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2901284684867933</v>
       </c>
       <c r="E101" t="n">
-        <v>1.272653334472764</v>
+        <v>1.283209482170034</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2236949239922275</v>
+        <v>0.1213499329638005</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.06232119677633204</v>
+        <v>-0.0525812159618801</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.30233398766448</v>
       </c>
       <c r="E102" t="n">
-        <v>1.158067300250158</v>
+        <v>1.180045404162607</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1992639392870523</v>
+        <v>0.1078678488923495</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1837533964972085</v>
+        <v>-0.1092836436204103</v>
       </c>
     </row>
   </sheetData>
